--- a/models/efa-models/efa_oblimin_13factors.xlsx
+++ b/models/efa-models/efa_oblimin_13factors.xlsx
@@ -12,17 +12,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t xml:space="preserve">factor</t>
   </si>
   <si>
-    <t xml:space="preserve">factor_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor_abbv</t>
-  </si>
-  <si>
     <t xml:space="preserve">item</t>
   </si>
   <si>
@@ -35,12 +29,6 @@
     <t xml:space="preserve">factor1</t>
   </si>
   <si>
-    <t xml:space="preserve">rhetoric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rt</t>
-  </si>
-  <si>
     <t xml:space="preserve">skl_negotiation</t>
   </si>
   <si>
@@ -80,12 +68,6 @@
     <t xml:space="preserve">factor2</t>
   </si>
   <si>
-    <t xml:space="preserve">engineering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eg</t>
-  </si>
-  <si>
     <t xml:space="preserve">knw_industrial_design</t>
   </si>
   <si>
@@ -113,12 +95,6 @@
     <t xml:space="preserve">factor3</t>
   </si>
   <si>
-    <t xml:space="preserve">health_science</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hs</t>
-  </si>
-  <si>
     <t xml:space="preserve">knw_medicine_and_dentistry</t>
   </si>
   <si>
@@ -140,12 +116,6 @@
     <t xml:space="preserve">factor4</t>
   </si>
   <si>
-    <t xml:space="preserve">spatial_abilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sp</t>
-  </si>
-  <si>
     <t xml:space="preserve">abl_night_vision</t>
   </si>
   <si>
@@ -179,12 +149,6 @@
     <t xml:space="preserve">factor5</t>
   </si>
   <si>
-    <t xml:space="preserve">management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mn</t>
-  </si>
-  <si>
     <t xml:space="preserve">skl_management_of_material_resources</t>
   </si>
   <si>
@@ -209,12 +173,6 @@
     <t xml:space="preserve">factor6</t>
   </si>
   <si>
-    <t xml:space="preserve">arts_and_humanities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ah</t>
-  </si>
-  <si>
     <t xml:space="preserve">knw_history_and_archeology</t>
   </si>
   <si>
@@ -245,12 +203,6 @@
     <t xml:space="preserve">factor7</t>
   </si>
   <si>
-    <t xml:space="preserve">mathematics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mt</t>
-  </si>
-  <si>
     <t xml:space="preserve">skl_pure_mathematics</t>
   </si>
   <si>
@@ -269,12 +221,6 @@
     <t xml:space="preserve">factor8</t>
   </si>
   <si>
-    <t xml:space="preserve">business</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bs</t>
-  </si>
-  <si>
     <t xml:space="preserve">knw_sales_and_marketing</t>
   </si>
   <si>
@@ -293,12 +239,6 @@
     <t xml:space="preserve">factor9</t>
   </si>
   <si>
-    <t xml:space="preserve">perception</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pc</t>
-  </si>
-  <si>
     <t xml:space="preserve">abl_hearing_sensitivity</t>
   </si>
   <si>
@@ -332,12 +272,6 @@
     <t xml:space="preserve">factor10</t>
   </si>
   <si>
-    <t xml:space="preserve">robustness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rb</t>
-  </si>
-  <si>
     <t xml:space="preserve">abl_stamina</t>
   </si>
   <si>
@@ -371,12 +305,6 @@
     <t xml:space="preserve">factor11</t>
   </si>
   <si>
-    <t xml:space="preserve">mechanical_skills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mc</t>
-  </si>
-  <si>
     <t xml:space="preserve">skl_repairing</t>
   </si>
   <si>
@@ -395,12 +323,6 @@
     <t xml:space="preserve">factor12</t>
   </si>
   <si>
-    <t xml:space="preserve">administrative_skills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ad</t>
-  </si>
-  <si>
     <t xml:space="preserve">knw_administrative</t>
   </si>
   <si>
@@ -416,12 +338,6 @@
     <t xml:space="preserve">factor13</t>
   </si>
   <si>
-    <t xml:space="preserve">analytical_skills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An</t>
-  </si>
-  <si>
     <t xml:space="preserve">skl_programming</t>
   </si>
   <si>
@@ -471,12 +387,6 @@
   </si>
   <si>
     <t xml:space="preserve">factor14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dexterity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dx</t>
   </si>
   <si>
     <t xml:space="preserve">abl_arm_hand_steadiness</t>
@@ -842,2290 +752,1600 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
         <v>0.620619015381374</v>
       </c>
-      <c r="F2" t="n">
+      <c r="D2" t="n">
         <v>1.04517327445858</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="C3" t="n">
         <v>0.612696852081672</v>
       </c>
-      <c r="F3" t="n">
+      <c r="D3" t="n">
         <v>1.13893457602653</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="C4" t="n">
         <v>0.512317932615698</v>
       </c>
-      <c r="F4" t="n">
+      <c r="D4" t="n">
         <v>1.25789569954268</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="C5" t="n">
         <v>0.487720817951914</v>
       </c>
-      <c r="F5" t="n">
+      <c r="D5" t="n">
         <v>1.06931491802129</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
         <v>0.487261187887833</v>
       </c>
-      <c r="F6" t="n">
+      <c r="D6" t="n">
         <v>1.35081145982257</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="n">
         <v>0.481798964406981</v>
       </c>
-      <c r="F7" t="n">
+      <c r="D7" t="n">
         <v>1.40307136121751</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
         <v>0.464304992843779</v>
       </c>
-      <c r="F8" t="n">
+      <c r="D8" t="n">
         <v>1.49396868204717</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="n">
+        <v>12</v>
+      </c>
+      <c r="C9" t="n">
         <v>0.4483082743207</v>
       </c>
-      <c r="F9" t="n">
+      <c r="D9" t="n">
         <v>1.4304036339284</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="n">
+        <v>13</v>
+      </c>
+      <c r="C10" t="n">
         <v>0.438880779245919</v>
       </c>
-      <c r="F10" t="n">
+      <c r="D10" t="n">
         <v>1.91712601615407</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="n">
+        <v>14</v>
+      </c>
+      <c r="C11" t="n">
         <v>0.417864181963248</v>
       </c>
-      <c r="F11" t="n">
+      <c r="D11" t="n">
         <v>1.44166311035</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="n">
+        <v>15</v>
+      </c>
+      <c r="C12" t="n">
         <v>0.411696695613805</v>
       </c>
-      <c r="F12" t="n">
+      <c r="D12" t="n">
         <v>1.67322299107804</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="n">
+        <v>16</v>
+      </c>
+      <c r="C13" t="n">
         <v>0.408692884446214</v>
       </c>
-      <c r="F13" t="n">
+      <c r="D13" t="n">
         <v>1.55042184012966</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" t="n">
+        <v>18</v>
+      </c>
+      <c r="C14" t="n">
         <v>0.82877589946705</v>
       </c>
-      <c r="F14" t="n">
+      <c r="D14" t="n">
         <v>1.10821099255353</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" t="n">
+        <v>19</v>
+      </c>
+      <c r="C15" t="n">
         <v>0.781947979817348</v>
       </c>
-      <c r="F15" t="n">
+      <c r="D15" t="n">
         <v>1.40340073333642</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" t="n">
+        <v>20</v>
+      </c>
+      <c r="C16" t="n">
         <v>0.720939583158271</v>
       </c>
-      <c r="F16" t="n">
+      <c r="D16" t="n">
         <v>1.41304111269895</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="C17" t="n">
         <v>0.712598515431536</v>
       </c>
-      <c r="F17" t="n">
+      <c r="D17" t="n">
         <v>0.835716914865645</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="C18" t="n">
         <v>0.687493235105995</v>
       </c>
-      <c r="F18" t="n">
+      <c r="D18" t="n">
         <v>1.06570190858727</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
         <v>23</v>
       </c>
-      <c r="D19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="C19" t="n">
         <v>0.549547701313377</v>
       </c>
-      <c r="F19" t="n">
+      <c r="D19" t="n">
         <v>0.541255759704636</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" t="n">
+        <v>24</v>
+      </c>
+      <c r="C20" t="n">
         <v>0.481141787932669</v>
       </c>
-      <c r="F20" t="n">
+      <c r="D20" t="n">
         <v>2.13977604598627</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" t="n">
+        <v>25</v>
+      </c>
+      <c r="C21" t="n">
         <v>0.471701410980586</v>
       </c>
-      <c r="F21" t="n">
+      <c r="D21" t="n">
         <v>1.56134351535465</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" t="n">
+        <v>27</v>
+      </c>
+      <c r="C22" t="n">
         <v>0.802686719490586</v>
       </c>
-      <c r="F22" t="n">
+      <c r="D22" t="n">
         <v>0.552976432181708</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" t="n">
+        <v>28</v>
+      </c>
+      <c r="C23" t="n">
         <v>0.752137939703814</v>
       </c>
-      <c r="F23" t="n">
+      <c r="D23" t="n">
         <v>0.875191308083964</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" t="n">
+        <v>29</v>
+      </c>
+      <c r="C24" t="n">
         <v>0.722376696120995</v>
       </c>
-      <c r="F24" t="n">
+      <c r="D24" t="n">
         <v>0.711390829692248</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" t="n">
+        <v>30</v>
+      </c>
+      <c r="C25" t="n">
         <v>0.662196750507537</v>
       </c>
-      <c r="F25" t="n">
+      <c r="D25" t="n">
         <v>1.14063246960681</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" t="n">
+        <v>31</v>
+      </c>
+      <c r="C26" t="n">
         <v>0.571826441983588</v>
       </c>
-      <c r="F26" t="n">
+      <c r="D26" t="n">
         <v>1.10351405293513</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>32</v>
       </c>
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" t="n">
+      <c r="C27" t="n">
         <v>0.569834555445157</v>
       </c>
-      <c r="F27" t="n">
+      <c r="D27" t="n">
         <v>1.58087940135098</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" t="n">
+        <v>34</v>
+      </c>
+      <c r="C28" t="n">
         <v>0.870566720469325</v>
       </c>
-      <c r="F28" t="n">
+      <c r="D28" t="n">
         <v>0.40860758899249</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" t="n">
+        <v>35</v>
+      </c>
+      <c r="C29" t="n">
         <v>0.863026464963672</v>
       </c>
-      <c r="F29" t="n">
+      <c r="D29" t="n">
         <v>0.393082817953651</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" t="n">
+        <v>36</v>
+      </c>
+      <c r="C30" t="n">
         <v>0.817279728393641</v>
       </c>
-      <c r="F30" t="n">
+      <c r="D30" t="n">
         <v>0.589007804541154</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" t="n">
+        <v>37</v>
+      </c>
+      <c r="C31" t="n">
         <v>0.810957158669058</v>
       </c>
-      <c r="F31" t="n">
+      <c r="D31" t="n">
         <v>0.432015052201408</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" t="n">
+        <v>38</v>
+      </c>
+      <c r="C32" t="n">
         <v>0.801862769997337</v>
       </c>
-      <c r="F32" t="n">
+      <c r="D32" t="n">
         <v>0.4893071195567</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" t="n">
+        <v>39</v>
+      </c>
+      <c r="C33" t="n">
         <v>0.634109500747458</v>
       </c>
-      <c r="F33" t="n">
+      <c r="D33" t="n">
         <v>0.37000116381878</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" t="n">
+        <v>40</v>
+      </c>
+      <c r="C34" t="n">
         <v>0.615647131661406</v>
       </c>
-      <c r="F34" t="n">
+      <c r="D34" t="n">
         <v>0.891752069116532</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
         <v>41</v>
       </c>
-      <c r="B35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="C35" t="n">
         <v>0.591759653956624</v>
       </c>
-      <c r="F35" t="n">
+      <c r="D35" t="n">
         <v>0.643563587870744</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
         <v>42</v>
       </c>
-      <c r="C36" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36" t="n">
+      <c r="C36" t="n">
         <v>0.548840585748046</v>
       </c>
-      <c r="F36" t="n">
+      <c r="D36" t="n">
         <v>0.857385991941678</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" t="s">
         <v>43</v>
       </c>
-      <c r="D37" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" t="n">
+      <c r="C37" t="n">
         <v>0.455605913622227</v>
       </c>
-      <c r="F37" t="n">
+      <c r="D37" t="n">
         <v>1.11375981714035</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" t="n">
+        <v>45</v>
+      </c>
+      <c r="C38" t="n">
         <v>0.710528960570247</v>
       </c>
-      <c r="F38" t="n">
+      <c r="D38" t="n">
         <v>1.43102097152692</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" t="n">
+        <v>46</v>
+      </c>
+      <c r="C39" t="n">
         <v>0.685199780795698</v>
       </c>
-      <c r="F39" t="n">
+      <c r="D39" t="n">
         <v>1.62755682629651</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" t="s">
-        <v>59</v>
-      </c>
-      <c r="E40" t="n">
+        <v>47</v>
+      </c>
+      <c r="C40" t="n">
         <v>0.666370341424492</v>
       </c>
-      <c r="F40" t="n">
+      <c r="D40" t="n">
         <v>1.13703510126633</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41" t="n">
+        <v>48</v>
+      </c>
+      <c r="C41" t="n">
         <v>0.601820592498755</v>
       </c>
-      <c r="F41" t="n">
+      <c r="D41" t="n">
         <v>1.08532696487925</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" t="s">
-        <v>56</v>
-      </c>
-      <c r="D42" t="s">
-        <v>61</v>
-      </c>
-      <c r="E42" t="n">
+        <v>49</v>
+      </c>
+      <c r="C42" t="n">
         <v>0.551186894803265</v>
       </c>
-      <c r="F42" t="n">
+      <c r="D42" t="n">
         <v>1.82322653448742</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" t="s">
-        <v>62</v>
-      </c>
-      <c r="E43" t="n">
+        <v>50</v>
+      </c>
+      <c r="C43" t="n">
         <v>0.490355999772573</v>
       </c>
-      <c r="F43" t="n">
+      <c r="D43" t="n">
         <v>1.87309438073398</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" t="s">
-        <v>63</v>
-      </c>
-      <c r="E44" t="n">
+        <v>51</v>
+      </c>
+      <c r="C44" t="n">
         <v>0.470006459668699</v>
       </c>
-      <c r="F44" t="n">
+      <c r="D44" t="n">
         <v>2.08579558467901</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" t="s">
-        <v>66</v>
-      </c>
-      <c r="D45" t="s">
-        <v>67</v>
-      </c>
-      <c r="E45" t="n">
+        <v>53</v>
+      </c>
+      <c r="C45" t="n">
         <v>0.800576190696896</v>
       </c>
-      <c r="F45" t="n">
+      <c r="D45" t="n">
         <v>0.165096376855897</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46" t="s">
-        <v>68</v>
-      </c>
-      <c r="E46" t="n">
+        <v>54</v>
+      </c>
+      <c r="C46" t="n">
         <v>0.715423016993734</v>
       </c>
-      <c r="F46" t="n">
+      <c r="D46" t="n">
         <v>-0.197225256190905</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" t="s">
-        <v>66</v>
-      </c>
-      <c r="D47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E47" t="n">
+        <v>55</v>
+      </c>
+      <c r="C47" t="n">
         <v>0.57982030227892</v>
       </c>
-      <c r="F47" t="n">
+      <c r="D47" t="n">
         <v>0.520571281548313</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" t="s">
-        <v>66</v>
-      </c>
-      <c r="D48" t="s">
-        <v>70</v>
-      </c>
-      <c r="E48" t="n">
+        <v>56</v>
+      </c>
+      <c r="C48" t="n">
         <v>0.576275973891227</v>
       </c>
-      <c r="F48" t="n">
+      <c r="D48" t="n">
         <v>0.952970415880952</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" t="s">
-        <v>66</v>
-      </c>
-      <c r="D49" t="s">
-        <v>71</v>
-      </c>
-      <c r="E49" t="n">
+        <v>57</v>
+      </c>
+      <c r="C49" t="n">
         <v>0.513644415341533</v>
       </c>
-      <c r="F49" t="n">
+      <c r="D49" t="n">
         <v>0.816251847948716</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" t="s">
-        <v>66</v>
-      </c>
-      <c r="D50" t="s">
-        <v>72</v>
-      </c>
-      <c r="E50" t="n">
+        <v>58</v>
+      </c>
+      <c r="C50" t="n">
         <v>0.477460206331063</v>
       </c>
-      <c r="F50" t="n">
+      <c r="D50" t="n">
         <v>1.79460460495244</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D51" t="s">
-        <v>73</v>
-      </c>
-      <c r="E51" t="n">
+        <v>59</v>
+      </c>
+      <c r="C51" t="n">
         <v>0.437199872476067</v>
       </c>
-      <c r="F51" t="n">
+      <c r="D51" t="n">
         <v>1.8962099868514</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" t="s">
-        <v>66</v>
-      </c>
-      <c r="D52" t="s">
-        <v>74</v>
-      </c>
-      <c r="E52" t="n">
+        <v>60</v>
+      </c>
+      <c r="C52" t="n">
         <v>0.427775628734516</v>
       </c>
-      <c r="F52" t="n">
+      <c r="D52" t="n">
         <v>1.16981055300403</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" t="s">
-        <v>66</v>
-      </c>
-      <c r="D53" t="s">
-        <v>75</v>
-      </c>
-      <c r="E53" t="n">
+        <v>61</v>
+      </c>
+      <c r="C53" t="n">
         <v>0.395890816019525</v>
       </c>
-      <c r="F53" t="n">
+      <c r="D53" t="n">
         <v>2.02491611410718</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
-      </c>
-      <c r="C54" t="s">
-        <v>78</v>
-      </c>
-      <c r="D54" t="s">
-        <v>79</v>
-      </c>
-      <c r="E54" t="n">
+        <v>63</v>
+      </c>
+      <c r="C54" t="n">
         <v>0.764801844122322</v>
       </c>
-      <c r="F54" t="n">
+      <c r="D54" t="n">
         <v>1.15775747328391</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" t="s">
-        <v>78</v>
-      </c>
-      <c r="D55" t="s">
-        <v>80</v>
-      </c>
-      <c r="E55" t="n">
+        <v>64</v>
+      </c>
+      <c r="C55" t="n">
         <v>0.755019490307634</v>
       </c>
-      <c r="F55" t="n">
+      <c r="D55" t="n">
         <v>0.929664195264768</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56" t="s">
-        <v>81</v>
-      </c>
-      <c r="E56" t="n">
+        <v>65</v>
+      </c>
+      <c r="C56" t="n">
         <v>0.717842676529057</v>
       </c>
-      <c r="F56" t="n">
+      <c r="D56" t="n">
         <v>1.07184669175465</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" t="s">
-        <v>78</v>
-      </c>
-      <c r="D57" t="s">
-        <v>82</v>
-      </c>
-      <c r="E57" t="n">
+        <v>66</v>
+      </c>
+      <c r="C57" t="n">
         <v>0.589287357857289</v>
       </c>
-      <c r="F57" t="n">
+      <c r="D57" t="n">
         <v>1.17955936063042</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" t="s">
-        <v>78</v>
-      </c>
-      <c r="D58" t="s">
-        <v>83</v>
-      </c>
-      <c r="E58" t="n">
+        <v>67</v>
+      </c>
+      <c r="C58" t="n">
         <v>0.423199142087658</v>
       </c>
-      <c r="F58" t="n">
+      <c r="D58" t="n">
         <v>1.77871713049947</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
-      </c>
-      <c r="C59" t="s">
-        <v>86</v>
-      </c>
-      <c r="D59" t="s">
-        <v>87</v>
-      </c>
-      <c r="E59" t="n">
+        <v>69</v>
+      </c>
+      <c r="C59" t="n">
         <v>0.754328334858241</v>
       </c>
-      <c r="F59" t="n">
+      <c r="D59" t="n">
         <v>0.0248704619439458</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
-      </c>
-      <c r="C60" t="s">
-        <v>86</v>
-      </c>
-      <c r="D60" t="s">
-        <v>88</v>
-      </c>
-      <c r="E60" t="n">
+        <v>70</v>
+      </c>
+      <c r="C60" t="n">
         <v>0.58005410619502</v>
       </c>
-      <c r="F60" t="n">
+      <c r="D60" t="n">
         <v>1.29628139947133</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>85</v>
-      </c>
-      <c r="C61" t="s">
-        <v>86</v>
-      </c>
-      <c r="D61" t="s">
-        <v>89</v>
-      </c>
-      <c r="E61" t="n">
+        <v>71</v>
+      </c>
+      <c r="C61" t="n">
         <v>0.53270877648547</v>
       </c>
-      <c r="F61" t="n">
+      <c r="D61" t="n">
         <v>0.512954328141014</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
-      </c>
-      <c r="C62" t="s">
-        <v>86</v>
-      </c>
-      <c r="D62" t="s">
-        <v>90</v>
-      </c>
-      <c r="E62" t="n">
+        <v>72</v>
+      </c>
+      <c r="C62" t="n">
         <v>0.530654073834498</v>
       </c>
-      <c r="F62" t="n">
+      <c r="D62" t="n">
         <v>0.160270229668687</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
-      </c>
-      <c r="C63" t="s">
-        <v>86</v>
-      </c>
-      <c r="D63" t="s">
-        <v>91</v>
-      </c>
-      <c r="E63" t="n">
+        <v>73</v>
+      </c>
+      <c r="C63" t="n">
         <v>0.519314835264436</v>
       </c>
-      <c r="F63" t="n">
+      <c r="D63" t="n">
         <v>0.636956763426028</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>93</v>
-      </c>
-      <c r="C64" t="s">
-        <v>94</v>
-      </c>
-      <c r="D64" t="s">
-        <v>95</v>
-      </c>
-      <c r="E64" t="n">
+        <v>75</v>
+      </c>
+      <c r="C64" t="n">
         <v>0.619014264824523</v>
       </c>
-      <c r="F64" t="n">
+      <c r="D64" t="n">
         <v>1.0688718933769</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>93</v>
-      </c>
-      <c r="C65" t="s">
-        <v>94</v>
-      </c>
-      <c r="D65" t="s">
-        <v>96</v>
-      </c>
-      <c r="E65" t="n">
+        <v>76</v>
+      </c>
+      <c r="C65" t="n">
         <v>0.589394398952757</v>
       </c>
-      <c r="F65" t="n">
+      <c r="D65" t="n">
         <v>1.70960476914686</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>93</v>
-      </c>
-      <c r="C66" t="s">
-        <v>94</v>
-      </c>
-      <c r="D66" t="s">
-        <v>97</v>
-      </c>
-      <c r="E66" t="n">
+        <v>77</v>
+      </c>
+      <c r="C66" t="n">
         <v>0.556384173648799</v>
       </c>
-      <c r="F66" t="n">
+      <c r="D66" t="n">
         <v>1.80119961499603</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>93</v>
-      </c>
-      <c r="C67" t="s">
-        <v>94</v>
-      </c>
-      <c r="D67" t="s">
-        <v>98</v>
-      </c>
-      <c r="E67" t="n">
+        <v>78</v>
+      </c>
+      <c r="C67" t="n">
         <v>0.522605877427038</v>
       </c>
-      <c r="F67" t="n">
+      <c r="D67" t="n">
         <v>1.39010005194934</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>93</v>
-      </c>
-      <c r="C68" t="s">
-        <v>94</v>
-      </c>
-      <c r="D68" t="s">
-        <v>99</v>
-      </c>
-      <c r="E68" t="n">
+        <v>79</v>
+      </c>
+      <c r="C68" t="n">
         <v>0.505817646187218</v>
       </c>
-      <c r="F68" t="n">
+      <c r="D68" t="n">
         <v>1.53734322265743</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B69" t="s">
-        <v>93</v>
-      </c>
-      <c r="C69" t="s">
-        <v>94</v>
-      </c>
-      <c r="D69" t="s">
-        <v>100</v>
-      </c>
-      <c r="E69" t="n">
+        <v>80</v>
+      </c>
+      <c r="C69" t="n">
         <v>0.503401964266524</v>
       </c>
-      <c r="F69" t="n">
+      <c r="D69" t="n">
         <v>1.96214481134458</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>93</v>
-      </c>
-      <c r="C70" t="s">
-        <v>94</v>
-      </c>
-      <c r="D70" t="s">
-        <v>101</v>
-      </c>
-      <c r="E70" t="n">
+        <v>81</v>
+      </c>
+      <c r="C70" t="n">
         <v>0.494464222629147</v>
       </c>
-      <c r="F70" t="n">
+      <c r="D70" t="n">
         <v>1.33356709483211</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>93</v>
-      </c>
-      <c r="C71" t="s">
-        <v>94</v>
-      </c>
-      <c r="D71" t="s">
-        <v>102</v>
-      </c>
-      <c r="E71" t="n">
+        <v>82</v>
+      </c>
+      <c r="C71" t="n">
         <v>0.491463093109692</v>
       </c>
-      <c r="F71" t="n">
+      <c r="D71" t="n">
         <v>2.20352525055008</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>93</v>
-      </c>
-      <c r="C72" t="s">
-        <v>94</v>
-      </c>
-      <c r="D72" t="s">
-        <v>103</v>
-      </c>
-      <c r="E72" t="n">
+        <v>83</v>
+      </c>
+      <c r="C72" t="n">
         <v>0.468722545093584</v>
       </c>
-      <c r="F72" t="n">
+      <c r="D72" t="n">
         <v>1.71332652825121</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>93</v>
-      </c>
-      <c r="C73" t="s">
-        <v>94</v>
-      </c>
-      <c r="D73" t="s">
-        <v>104</v>
-      </c>
-      <c r="E73" t="n">
+        <v>84</v>
+      </c>
+      <c r="C73" t="n">
         <v>0.462441275252455</v>
       </c>
-      <c r="F73" t="n">
+      <c r="D73" t="n">
         <v>1.70310160230517</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B74" t="s">
-        <v>106</v>
-      </c>
-      <c r="C74" t="s">
-        <v>107</v>
-      </c>
-      <c r="D74" t="s">
-        <v>108</v>
-      </c>
-      <c r="E74" t="n">
+        <v>86</v>
+      </c>
+      <c r="C74" t="n">
         <v>0.741144303130108</v>
       </c>
-      <c r="F74" t="n">
+      <c r="D74" t="n">
         <v>-0.253931439491422</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B75" t="s">
-        <v>106</v>
-      </c>
-      <c r="C75" t="s">
-        <v>107</v>
-      </c>
-      <c r="D75" t="s">
-        <v>109</v>
-      </c>
-      <c r="E75" t="n">
+        <v>87</v>
+      </c>
+      <c r="C75" t="n">
         <v>0.716315529027918</v>
       </c>
-      <c r="F75" t="n">
+      <c r="D75" t="n">
         <v>-0.182286973664554</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B76" t="s">
-        <v>106</v>
-      </c>
-      <c r="C76" t="s">
-        <v>107</v>
-      </c>
-      <c r="D76" t="s">
-        <v>110</v>
-      </c>
-      <c r="E76" t="n">
+        <v>88</v>
+      </c>
+      <c r="C76" t="n">
         <v>0.714452839572674</v>
       </c>
-      <c r="F76" t="n">
+      <c r="D76" t="n">
         <v>0.207011160190658</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B77" t="s">
-        <v>106</v>
-      </c>
-      <c r="C77" t="s">
-        <v>107</v>
-      </c>
-      <c r="D77" t="s">
-        <v>111</v>
-      </c>
-      <c r="E77" t="n">
+        <v>89</v>
+      </c>
+      <c r="C77" t="n">
         <v>0.655912153688555</v>
       </c>
-      <c r="F77" t="n">
+      <c r="D77" t="n">
         <v>-0.182957410958187</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>106</v>
-      </c>
-      <c r="C78" t="s">
-        <v>107</v>
-      </c>
-      <c r="D78" t="s">
-        <v>112</v>
-      </c>
-      <c r="E78" t="n">
+        <v>90</v>
+      </c>
+      <c r="C78" t="n">
         <v>0.637509440180763</v>
       </c>
-      <c r="F78" t="n">
+      <c r="D78" t="n">
         <v>-0.0184180612832135</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>106</v>
-      </c>
-      <c r="C79" t="s">
-        <v>107</v>
-      </c>
-      <c r="D79" t="s">
-        <v>113</v>
-      </c>
-      <c r="E79" t="n">
+        <v>91</v>
+      </c>
+      <c r="C79" t="n">
         <v>0.630030654791022</v>
       </c>
-      <c r="F79" t="n">
+      <c r="D79" t="n">
         <v>0.0518446941542815</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B80" t="s">
-        <v>106</v>
-      </c>
-      <c r="C80" t="s">
-        <v>107</v>
-      </c>
-      <c r="D80" t="s">
-        <v>114</v>
-      </c>
-      <c r="E80" t="n">
+        <v>92</v>
+      </c>
+      <c r="C80" t="n">
         <v>0.627944174256115</v>
       </c>
-      <c r="F80" t="n">
+      <c r="D80" t="n">
         <v>-0.211473866169976</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>106</v>
-      </c>
-      <c r="C81" t="s">
-        <v>107</v>
-      </c>
-      <c r="D81" t="s">
-        <v>115</v>
-      </c>
-      <c r="E81" t="n">
+        <v>93</v>
+      </c>
+      <c r="C81" t="n">
         <v>0.603321088383042</v>
       </c>
-      <c r="F81" t="n">
+      <c r="D81" t="n">
         <v>0.430301294178474</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>106</v>
-      </c>
-      <c r="C82" t="s">
-        <v>107</v>
-      </c>
-      <c r="D82" t="s">
-        <v>116</v>
-      </c>
-      <c r="E82" t="n">
+        <v>94</v>
+      </c>
+      <c r="C82" t="n">
         <v>0.532691467184258</v>
       </c>
-      <c r="F82" t="n">
+      <c r="D82" t="n">
         <v>0.210226684183767</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>106</v>
-      </c>
-      <c r="C83" t="s">
-        <v>107</v>
-      </c>
-      <c r="D83" t="s">
-        <v>117</v>
-      </c>
-      <c r="E83" t="n">
+        <v>95</v>
+      </c>
+      <c r="C83" t="n">
         <v>0.406511754912108</v>
       </c>
-      <c r="F83" t="n">
+      <c r="D83" t="n">
         <v>0.0198679755742545</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B84" t="s">
-        <v>119</v>
-      </c>
-      <c r="C84" t="s">
-        <v>120</v>
-      </c>
-      <c r="D84" t="s">
-        <v>121</v>
-      </c>
-      <c r="E84" t="n">
+        <v>97</v>
+      </c>
+      <c r="C84" t="n">
         <v>0.757736690664128</v>
       </c>
-      <c r="F84" t="n">
+      <c r="D84" t="n">
         <v>0.559785692313353</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B85" t="s">
-        <v>119</v>
-      </c>
-      <c r="C85" t="s">
-        <v>120</v>
-      </c>
-      <c r="D85" t="s">
-        <v>122</v>
-      </c>
-      <c r="E85" t="n">
+        <v>98</v>
+      </c>
+      <c r="C85" t="n">
         <v>0.743663773139001</v>
       </c>
-      <c r="F85" t="n">
+      <c r="D85" t="n">
         <v>0.451287345488038</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B86" t="s">
-        <v>119</v>
-      </c>
-      <c r="C86" t="s">
-        <v>120</v>
-      </c>
-      <c r="D86" t="s">
-        <v>123</v>
-      </c>
-      <c r="E86" t="n">
+        <v>99</v>
+      </c>
+      <c r="C86" t="n">
         <v>0.726976151204495</v>
       </c>
-      <c r="F86" t="n">
+      <c r="D86" t="n">
         <v>0.816684858471208</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B87" t="s">
-        <v>119</v>
-      </c>
-      <c r="C87" t="s">
-        <v>120</v>
-      </c>
-      <c r="D87" t="s">
-        <v>124</v>
-      </c>
-      <c r="E87" t="n">
+        <v>100</v>
+      </c>
+      <c r="C87" t="n">
         <v>0.623868000452602</v>
       </c>
-      <c r="F87" t="n">
+      <c r="D87" t="n">
         <v>0.635905104009384</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B88" t="s">
-        <v>119</v>
-      </c>
-      <c r="C88" t="s">
-        <v>120</v>
-      </c>
-      <c r="D88" t="s">
-        <v>125</v>
-      </c>
-      <c r="E88" t="n">
+        <v>101</v>
+      </c>
+      <c r="C88" t="n">
         <v>0.584561256806793</v>
       </c>
-      <c r="F88" t="n">
+      <c r="D88" t="n">
         <v>1.10465308078772</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="B89" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" t="s">
-        <v>128</v>
-      </c>
-      <c r="D89" t="s">
-        <v>129</v>
-      </c>
-      <c r="E89" t="n">
+        <v>103</v>
+      </c>
+      <c r="C89" t="n">
         <v>0.557980026855468</v>
       </c>
-      <c r="F89" t="n">
+      <c r="D89" t="n">
         <v>0.0508924777889317</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="B90" t="s">
-        <v>127</v>
-      </c>
-      <c r="C90" t="s">
-        <v>128</v>
-      </c>
-      <c r="D90" t="s">
-        <v>130</v>
-      </c>
-      <c r="E90" t="n">
+        <v>104</v>
+      </c>
+      <c r="C90" t="n">
         <v>0.54212739542238</v>
       </c>
-      <c r="F90" t="n">
+      <c r="D90" t="n">
         <v>0.928536108181595</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="B91" t="s">
-        <v>127</v>
-      </c>
-      <c r="C91" t="s">
-        <v>128</v>
-      </c>
-      <c r="D91" t="s">
-        <v>131</v>
-      </c>
-      <c r="E91" t="n">
+        <v>105</v>
+      </c>
+      <c r="C91" t="n">
         <v>0.436884121160504</v>
       </c>
-      <c r="F91" t="n">
+      <c r="D91" t="n">
         <v>1.13836203466365</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="B92" t="s">
-        <v>127</v>
-      </c>
-      <c r="C92" t="s">
-        <v>128</v>
-      </c>
-      <c r="D92" t="s">
-        <v>132</v>
-      </c>
-      <c r="E92" t="n">
+        <v>106</v>
+      </c>
+      <c r="C92" t="n">
         <v>0.433930026671801</v>
       </c>
-      <c r="F92" t="n">
+      <c r="D92" t="n">
         <v>1.6640273418379</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="B93" t="s">
-        <v>134</v>
-      </c>
-      <c r="C93" t="s">
-        <v>135</v>
-      </c>
-      <c r="D93" t="s">
-        <v>136</v>
-      </c>
-      <c r="E93" t="n">
+        <v>108</v>
+      </c>
+      <c r="C93" t="n">
         <v>0.533910479486055</v>
       </c>
-      <c r="F93" t="n">
+      <c r="D93" t="n">
         <v>0.698553482317843</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="B94" t="s">
-        <v>134</v>
-      </c>
-      <c r="C94" t="s">
-        <v>135</v>
-      </c>
-      <c r="D94" t="s">
-        <v>137</v>
-      </c>
-      <c r="E94" t="n">
+        <v>109</v>
+      </c>
+      <c r="C94" t="n">
         <v>0.532681240641005</v>
       </c>
-      <c r="F94" t="n">
+      <c r="D94" t="n">
         <v>1.84880932394556</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="B95" t="s">
-        <v>134</v>
-      </c>
-      <c r="C95" t="s">
-        <v>135</v>
-      </c>
-      <c r="D95" t="s">
-        <v>138</v>
-      </c>
-      <c r="E95" t="n">
+        <v>110</v>
+      </c>
+      <c r="C95" t="n">
         <v>0.52171767703504</v>
       </c>
-      <c r="F95" t="n">
+      <c r="D95" t="n">
         <v>1.66219805437742</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="B96" t="s">
-        <v>134</v>
-      </c>
-      <c r="C96" t="s">
-        <v>135</v>
-      </c>
-      <c r="D96" t="s">
-        <v>139</v>
-      </c>
-      <c r="E96" t="n">
+        <v>111</v>
+      </c>
+      <c r="C96" t="n">
         <v>0.516452194866502</v>
       </c>
-      <c r="F96" t="n">
+      <c r="D96" t="n">
         <v>1.87873886206274</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="B97" t="s">
-        <v>134</v>
-      </c>
-      <c r="C97" t="s">
-        <v>135</v>
-      </c>
-      <c r="D97" t="s">
-        <v>140</v>
-      </c>
-      <c r="E97" t="n">
+        <v>112</v>
+      </c>
+      <c r="C97" t="n">
         <v>0.51497002833115</v>
       </c>
-      <c r="F97" t="n">
+      <c r="D97" t="n">
         <v>1.91413304268676</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="B98" t="s">
-        <v>134</v>
-      </c>
-      <c r="C98" t="s">
-        <v>135</v>
-      </c>
-      <c r="D98" t="s">
-        <v>141</v>
-      </c>
-      <c r="E98" t="n">
+        <v>113</v>
+      </c>
+      <c r="C98" t="n">
         <v>0.508016075474149</v>
       </c>
-      <c r="F98" t="n">
+      <c r="D98" t="n">
         <v>1.90722980297969</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="B99" t="s">
-        <v>134</v>
-      </c>
-      <c r="C99" t="s">
-        <v>135</v>
-      </c>
-      <c r="D99" t="s">
-        <v>142</v>
-      </c>
-      <c r="E99" t="n">
+        <v>114</v>
+      </c>
+      <c r="C99" t="n">
         <v>0.505456772440349</v>
       </c>
-      <c r="F99" t="n">
+      <c r="D99" t="n">
         <v>2.0906338455237</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="B100" t="s">
-        <v>134</v>
-      </c>
-      <c r="C100" t="s">
-        <v>135</v>
-      </c>
-      <c r="D100" t="s">
-        <v>143</v>
-      </c>
-      <c r="E100" t="n">
+        <v>115</v>
+      </c>
+      <c r="C100" t="n">
         <v>0.479839770317495</v>
       </c>
-      <c r="F100" t="n">
+      <c r="D100" t="n">
         <v>2.07035071865735</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>134</v>
-      </c>
-      <c r="C101" t="s">
-        <v>135</v>
-      </c>
-      <c r="D101" t="s">
-        <v>144</v>
-      </c>
-      <c r="E101" t="n">
+        <v>116</v>
+      </c>
+      <c r="C101" t="n">
         <v>0.465354087845045</v>
       </c>
-      <c r="F101" t="n">
+      <c r="D101" t="n">
         <v>1.94288551837531</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="B102" t="s">
-        <v>134</v>
-      </c>
-      <c r="C102" t="s">
-        <v>135</v>
-      </c>
-      <c r="D102" t="s">
-        <v>145</v>
-      </c>
-      <c r="E102" t="n">
+        <v>117</v>
+      </c>
+      <c r="C102" t="n">
         <v>0.456770951859094</v>
       </c>
-      <c r="F102" t="n">
+      <c r="D102" t="n">
         <v>1.84005531740328</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="B103" t="s">
-        <v>134</v>
-      </c>
-      <c r="C103" t="s">
-        <v>135</v>
-      </c>
-      <c r="D103" t="s">
-        <v>146</v>
-      </c>
-      <c r="E103" t="n">
+        <v>118</v>
+      </c>
+      <c r="C103" t="n">
         <v>0.436260153086279</v>
       </c>
-      <c r="F103" t="n">
+      <c r="D103" t="n">
         <v>1.80466705644382</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>134</v>
-      </c>
-      <c r="C104" t="s">
-        <v>135</v>
-      </c>
-      <c r="D104" t="s">
-        <v>147</v>
-      </c>
-      <c r="E104" t="n">
+        <v>119</v>
+      </c>
+      <c r="C104" t="n">
         <v>0.431701008088878</v>
       </c>
-      <c r="F104" t="n">
+      <c r="D104" t="n">
         <v>2.02478919953798</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>134</v>
-      </c>
-      <c r="C105" t="s">
-        <v>135</v>
-      </c>
-      <c r="D105" t="s">
-        <v>148</v>
-      </c>
-      <c r="E105" t="n">
+        <v>120</v>
+      </c>
+      <c r="C105" t="n">
         <v>0.429919687592381</v>
       </c>
-      <c r="F105" t="n">
+      <c r="D105" t="n">
         <v>2.1551006970102</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>134</v>
-      </c>
-      <c r="C106" t="s">
-        <v>135</v>
-      </c>
-      <c r="D106" t="s">
-        <v>149</v>
-      </c>
-      <c r="E106" t="n">
+        <v>121</v>
+      </c>
+      <c r="C106" t="n">
         <v>0.424802724922043</v>
       </c>
-      <c r="F106" t="n">
+      <c r="D106" t="n">
         <v>1.87874515464147</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>134</v>
-      </c>
-      <c r="C107" t="s">
-        <v>135</v>
-      </c>
-      <c r="D107" t="s">
-        <v>150</v>
-      </c>
-      <c r="E107" t="n">
+        <v>122</v>
+      </c>
+      <c r="C107" t="n">
         <v>0.417046758347402</v>
       </c>
-      <c r="F107" t="n">
+      <c r="D107" t="n">
         <v>1.96687242110261</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>134</v>
-      </c>
-      <c r="C108" t="s">
-        <v>135</v>
-      </c>
-      <c r="D108" t="s">
-        <v>151</v>
-      </c>
-      <c r="E108" t="n">
+        <v>123</v>
+      </c>
+      <c r="C108" t="n">
         <v>0.389186210355256</v>
       </c>
-      <c r="F108" t="n">
+      <c r="D108" t="n">
         <v>1.53740515611301</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="B109" t="s">
-        <v>153</v>
-      </c>
-      <c r="C109" t="s">
-        <v>154</v>
-      </c>
-      <c r="D109" t="s">
-        <v>155</v>
-      </c>
-      <c r="E109" t="n">
+        <v>125</v>
+      </c>
+      <c r="C109" t="n">
         <v>0.667357171389933</v>
       </c>
-      <c r="F109" t="n">
+      <c r="D109" t="n">
         <v>-0.0608074295994454</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="B110" t="s">
-        <v>153</v>
-      </c>
-      <c r="C110" t="s">
-        <v>154</v>
-      </c>
-      <c r="D110" t="s">
-        <v>156</v>
-      </c>
-      <c r="E110" t="n">
+        <v>126</v>
+      </c>
+      <c r="C110" t="n">
         <v>0.652021278344995</v>
       </c>
-      <c r="F110" t="n">
+      <c r="D110" t="n">
         <v>-0.216835946687897</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="B111" t="s">
-        <v>153</v>
-      </c>
-      <c r="C111" t="s">
-        <v>154</v>
-      </c>
-      <c r="D111" t="s">
-        <v>157</v>
-      </c>
-      <c r="E111" t="n">
+        <v>127</v>
+      </c>
+      <c r="C111" t="n">
         <v>0.646573476169803</v>
       </c>
-      <c r="F111" t="n">
+      <c r="D111" t="n">
         <v>0.236225562315666</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="B112" t="s">
-        <v>153</v>
-      </c>
-      <c r="C112" t="s">
-        <v>154</v>
-      </c>
-      <c r="D112" t="s">
-        <v>158</v>
-      </c>
-      <c r="E112" t="n">
+        <v>128</v>
+      </c>
+      <c r="C112" t="n">
         <v>0.564907042959302</v>
       </c>
-      <c r="F112" t="n">
+      <c r="D112" t="n">
         <v>0.495485696932405</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="B113" t="s">
-        <v>153</v>
-      </c>
-      <c r="C113" t="s">
-        <v>154</v>
-      </c>
-      <c r="D113" t="s">
-        <v>159</v>
-      </c>
-      <c r="E113" t="n">
+        <v>129</v>
+      </c>
+      <c r="C113" t="n">
         <v>0.556768893546241</v>
       </c>
-      <c r="F113" t="n">
+      <c r="D113" t="n">
         <v>0.143207351612269</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="B114" t="s">
-        <v>153</v>
-      </c>
-      <c r="C114" t="s">
-        <v>154</v>
-      </c>
-      <c r="D114" t="s">
-        <v>160</v>
-      </c>
-      <c r="E114" t="n">
+        <v>130</v>
+      </c>
+      <c r="C114" t="n">
         <v>0.525756197777581</v>
       </c>
-      <c r="F114" t="n">
+      <c r="D114" t="n">
         <v>0.305405591297315</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="B115" t="s">
-        <v>153</v>
-      </c>
-      <c r="C115" t="s">
-        <v>154</v>
-      </c>
-      <c r="D115" t="s">
-        <v>161</v>
-      </c>
-      <c r="E115" t="n">
+        <v>131</v>
+      </c>
+      <c r="C115" t="n">
         <v>0.471990882196406</v>
       </c>
-      <c r="F115" t="n">
+      <c r="D115" t="n">
         <v>1.01106257208465</v>
       </c>
     </row>
